--- a/Java-DevOps-Bootcamp Curriculum.xlsx
+++ b/Java-DevOps-Bootcamp Curriculum.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Krithik Documents\After First Call\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deep/Dropbox/TrainingCourses/Syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C85A3-ED58-43AF-9C39-74BF821E7742}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C672A0C-E4D4-654E-9AC5-DC0AFBAC36A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="AD78" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="25605" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="4800" windowWidth="34860" windowHeight="17800" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -193,6 +193,9 @@
     <t>Mock interviews</t>
   </si>
   <si>
+    <t>LIVE Project with all team members</t>
+  </si>
+  <si>
     <t>Pop Quiz - twice a week</t>
   </si>
   <si>
@@ -259,9 +262,6 @@
     <t>Networking in JAVA</t>
   </si>
   <si>
-    <t>Spring and Hibernate frameworks overview</t>
-  </si>
-  <si>
     <t>Databases - JDBC</t>
   </si>
   <si>
@@ -298,9 +298,6 @@
     <t>Git Overview</t>
   </si>
   <si>
-    <t>Linux Shell Scripting - DevOps</t>
-  </si>
-  <si>
     <t>Ansible - Chef - Puppet tools overview</t>
   </si>
   <si>
@@ -427,18 +424,12 @@
     <t>DevOps Configuration and Monitoring week</t>
   </si>
   <si>
-    <t>DevOps Kickstart (AWS, Jenkins and Docker) week</t>
-  </si>
-  <si>
     <t>Resume Preparation last minute exercises week</t>
   </si>
   <si>
     <t>Discuss different JAVA frameworks</t>
   </si>
   <si>
-    <t xml:space="preserve">   Springboot</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Hibernate</t>
   </si>
   <si>
@@ -625,12 +616,6 @@
     <t>Exercise: Exception Handling exercise</t>
   </si>
   <si>
-    <t>DevOps - Week1</t>
-  </si>
-  <si>
-    <t>DevOps - Week2</t>
-  </si>
-  <si>
     <t>AWS Certification cont..</t>
   </si>
   <si>
@@ -844,7 +829,22 @@
     <t>DONE!!</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Linux Shell Scripting</t>
+  </si>
+  <si>
+    <t>JAVA DevOps (AWS, Jenkins and Docker) week</t>
+  </si>
+  <si>
+    <t>Spring, SpringBoot and Hibernate frameworks overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Springboot - Spring</t>
+  </si>
+  <si>
+    <t>Java DevOps - Week4</t>
+  </si>
+  <si>
+    <t>Java-DevOps - Week2</t>
   </si>
 </sst>
 </file>
@@ -2589,350 +2589,350 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="75.375" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B54" s="25"/>
     </row>
@@ -2954,18 +2954,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="77.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -2976,14 +2976,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2991,79 +2991,79 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="18"/>
       <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="19"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3074,98 +3074,98 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="22"/>
       <c r="C15" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="22"/>
       <c r="C16" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="18"/>
       <c r="C21" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="18"/>
       <c r="C26" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="19"/>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -3176,77 +3176,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="18"/>
       <c r="C32" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="18"/>
       <c r="C33" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="18"/>
       <c r="C34" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="18"/>
       <c r="C36" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="18"/>
       <c r="C37" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="19"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -3257,63 +3257,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="18"/>
       <c r="C40" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="18"/>
       <c r="C41" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="18"/>
       <c r="C42" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="18"/>
       <c r="C43" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="18"/>
       <c r="C45" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="18"/>
       <c r="C46" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="19"/>
       <c r="C47" s="14"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -3324,35 +3324,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="18"/>
       <c r="C49" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="18"/>
       <c r="C50" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="18"/>
       <c r="C51" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="18"/>
       <c r="C52" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="18" t="s">
         <v>3</v>
@@ -3361,41 +3361,41 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="C54" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="18"/>
       <c r="C55" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="18"/>
       <c r="C56" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
     </row>
-    <row r="59" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="34"/>
@@ -3424,14 +3424,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="69.625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -3442,14 +3442,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3460,104 +3460,104 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="18"/>
       <c r="C16" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="19"/>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -3568,28 +3568,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="18"/>
       <c r="C21" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="18" t="s">
         <v>3</v>
@@ -3598,19 +3598,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="18"/>
       <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="19"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="18" t="s">
         <v>2</v>
@@ -3619,84 +3619,84 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="18"/>
       <c r="C27" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="18"/>
       <c r="C28" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="18"/>
       <c r="C32" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="18"/>
       <c r="C33" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="18"/>
       <c r="C34" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="18"/>
       <c r="C35" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="19"/>
       <c r="C36" s="14"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -3707,76 +3707,76 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="18"/>
       <c r="C39" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="18"/>
       <c r="C40" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="18"/>
       <c r="C43" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="18"/>
       <c r="C44" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="18"/>
       <c r="C45" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="18"/>
       <c r="C46" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="19"/>
       <c r="C47" s="14"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>10</v>
       </c>
@@ -3787,79 +3787,79 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="18"/>
       <c r="C49" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="18"/>
       <c r="C50" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="18"/>
       <c r="C51" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="18"/>
       <c r="C52" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="18"/>
       <c r="C54" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="18"/>
       <c r="C55" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="18"/>
       <c r="C56" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
     </row>
-    <row r="59" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A59" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -3883,18 +3883,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -3905,14 +3905,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3923,35 +3923,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="18"/>
       <c r="C7" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="18" t="s">
         <v>3</v>
@@ -3960,33 +3960,33 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="19"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -3997,34 +3997,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="19"/>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4035,35 +4035,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="18"/>
       <c r="C21" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -4074,49 +4074,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="18"/>
       <c r="C27" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="18"/>
       <c r="C28" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="19"/>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -4127,56 +4127,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="18"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="18"/>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="18"/>
       <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="18"/>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="18"/>
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="18" t="s">
         <v>3</v>
@@ -4185,41 +4185,41 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="18"/>
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="18"/>
       <c r="C41" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="29"/>
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
     </row>
-    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="34"/>
@@ -4243,19 +4243,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" style="20" customWidth="1"/>
     <col min="3" max="3" width="66" customWidth="1"/>
-    <col min="7" max="7" width="34.125" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -4266,14 +4266,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4284,63 +4284,63 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="18"/>
       <c r="C10" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="19"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -4348,45 +4348,45 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="19"/>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4394,51 +4394,51 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="18"/>
       <c r="C20" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="18"/>
       <c r="C23" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="19"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -4446,80 +4446,80 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="18"/>
       <c r="C27" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="18"/>
       <c r="C28" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="18"/>
       <c r="C32" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="18"/>
       <c r="C33" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="18"/>
       <c r="C34" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="19"/>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -4527,68 +4527,68 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="18"/>
       <c r="C39" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="18"/>
       <c r="C41" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="18"/>
       <c r="C42" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
     </row>
-    <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
@@ -4612,18 +4612,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="3" max="3" width="68.875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="68.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -4634,14 +4634,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4649,66 +4649,66 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -4716,58 +4716,58 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="C18" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -4775,73 +4775,73 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -4849,72 +4849,72 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -4922,31 +4922,31 @@
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
     </row>
-    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -4974,14 +4974,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -4992,14 +4992,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5007,10 +5007,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -5018,10 +5018,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -5041,7 +5041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -5061,7 +5061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -5081,14 +5081,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
